--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T13:40:48+00:00</t>
+    <t>2024-10-30T13:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:05:44+00:00</t>
+    <t>2024-10-30T16:09:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:09:37+00:00</t>
+    <t>2024-10-30T16:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T16:49:36+00:00</t>
+    <t>2024-10-30T17:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-30T17:29:46+00:00</t>
+    <t>2024-11-08T13:33:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:33:24+00:00</t>
+    <t>2024-11-08T13:57:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T13:57:59+00:00</t>
+    <t>2024-12-11T16:27:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:27:42+00:00</t>
+    <t>2024-12-11T16:36:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:36:57+00:00</t>
+    <t>2024-12-11T16:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T16:39:06+00:00</t>
+    <t>2024-12-11T17:02:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:02:02+00:00</t>
+    <t>2024-12-11T17:11:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-11T17:11:59+00:00</t>
+    <t>2024-12-13T13:36:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:36:15+00:00</t>
+    <t>2024-12-13T13:38:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:38:24+00:00</t>
+    <t>2024-12-13T13:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -605,7 +605,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:request.url}
+    <t xml:space="preserve">profile:resource}
 </t>
   </si>
   <si>

--- a/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
+++ b/nr-add-lipids/ig/StructureDefinition-mesures-bundle-flux-alimentation-cholesterol.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-13T13:39:29+00:00</t>
+    <t>2024-12-13T13:45:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
